--- a/output/0/tRNA-Glu-TTC-1-2.xlsx
+++ b/output/0/tRNA-Glu-TTC-1-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="95">
   <si>
     <t>chr13</t>
   </si>
@@ -297,120 +297,6 @@
   </si>
   <si>
     <t>64</t>
-  </si>
-  <si>
-    <t>41635051</t>
-  </si>
-  <si>
-    <t>41635074</t>
-  </si>
-  <si>
-    <t>41635054</t>
-  </si>
-  <si>
-    <t>GGCGGCGGCGGCGGCGGCGG</t>
-  </si>
-  <si>
-    <t>4% (24)</t>
-  </si>
-  <si>
-    <t>100% (98)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>41635077</t>
-  </si>
-  <si>
-    <t>41635057</t>
-  </si>
-  <si>
-    <t>99% (95)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>41635080</t>
-  </si>
-  <si>
-    <t>41635060</t>
-  </si>
-  <si>
-    <t>3% (21)</t>
-  </si>
-  <si>
-    <t>99% (94)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>41635083</t>
-  </si>
-  <si>
-    <t>41635063</t>
-  </si>
-  <si>
-    <t>AGCGGCGGCGGCGGCGGCGG</t>
-  </si>
-  <si>
-    <t>5% (25)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>41635086</t>
-  </si>
-  <si>
-    <t>41635066</t>
-  </si>
-  <si>
-    <t>AGCAGCGGCGGCGGCGGCGG</t>
-  </si>
-  <si>
-    <t>41635089</t>
-  </si>
-  <si>
-    <t>41635069</t>
-  </si>
-  <si>
-    <t>AGCAGCAGCGGCGGCGGCGG</t>
-  </si>
-  <si>
-    <t>6% (27)</t>
-  </si>
-  <si>
-    <t>97% (80)</t>
-  </si>
-  <si>
-    <t>41635092</t>
-  </si>
-  <si>
-    <t>41635072</t>
-  </si>
-  <si>
-    <t>GGCAGCAGCAGCGGCGGCGG</t>
-  </si>
-  <si>
-    <t>12% (33)</t>
-  </si>
-  <si>
-    <t>97% (81)</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
 </sst>
 </file>
@@ -455,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1169,419 +1055,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" t="s">
-        <v>100</v>
-      </c>
-      <c r="P13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P14" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>112</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" t="s">
-        <v>110</v>
-      </c>
-      <c r="P16" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>118</v>
-      </c>
-      <c r="R16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>116</v>
-      </c>
-      <c r="O17" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>86</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" t="s">
-        <v>126</v>
-      </c>
-      <c r="P18" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>106</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" t="s">
-        <v>130</v>
-      </c>
-      <c r="O19" t="s">
-        <v>131</v>
-      </c>
-      <c r="P19" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>132</v>
-      </c>
-      <c r="R19" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
